--- a/data/trans_orig/P16A13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C70533-97E5-47AD-B42B-30B90C9072CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F4E7A59-C3A3-46B4-9608-72C412249DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F365E4D0-1079-4737-B758-DC78C210C6BF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{201F55BB-DEB1-47B3-B13E-62C684057219}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="397">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1165 +77,1159 @@
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23424A65-F177-45C8-B2D7-BBC621F3FC08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C032B8F3-10E1-4AA8-82C7-01C23F8905A9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1962,7 +1956,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,13 +1971,13 @@
         <v>572852</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>553</v>
@@ -1992,13 +1986,13 @@
         <v>560460</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1125</v>
@@ -2007,13 +2001,13 @@
         <v>1133312</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,7 +2063,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2081,13 +2075,13 @@
         <v>30431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -2096,13 +2090,13 @@
         <v>29907</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -2111,13 +2105,13 @@
         <v>60337</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2126,13 @@
         <v>931369</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>880</v>
@@ -2147,13 +2141,13 @@
         <v>938486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1747</v>
@@ -2162,13 +2156,13 @@
         <v>1869856</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,7 +2218,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2239,10 +2233,10 @@
         <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -2251,13 +2245,13 @@
         <v>31237</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -2266,13 +2260,13 @@
         <v>56122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,10 +2284,10 @@
         <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>663</v>
@@ -2302,13 +2296,13 @@
         <v>652604</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1279</v>
@@ -2317,13 +2311,13 @@
         <v>1306228</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,7 +2373,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2391,13 +2385,13 @@
         <v>23252</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -2406,13 +2400,13 @@
         <v>40062</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -2421,13 +2415,13 @@
         <v>63315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2436,13 @@
         <v>918970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>957</v>
@@ -2457,13 +2451,13 @@
         <v>998550</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1928</v>
@@ -2472,13 +2466,13 @@
         <v>1917519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2540,13 @@
         <v>86595</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -2561,13 +2555,13 @@
         <v>121472</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -2576,13 +2570,13 @@
         <v>208067</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,16 +2588,16 @@
         <v>3128</v>
       </c>
       <c r="D20" s="7">
-        <v>3188930</v>
+        <v>3188931</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>3175</v>
@@ -2612,28 +2606,28 @@
         <v>3257726</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>6303</v>
       </c>
       <c r="N20" s="7">
-        <v>6446655</v>
+        <v>6446656</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,7 +2639,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2675,7 +2669,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2689,7 +2683,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2710,7 +2704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DDDBD3-F44D-4178-9BE4-2B104E49EDE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90F6F4C-82D0-48BF-B705-FC3D94420E22}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2727,7 +2721,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2834,13 +2828,13 @@
         <v>2529</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2849,13 +2843,13 @@
         <v>4345</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2864,13 +2858,13 @@
         <v>6875</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2879,13 @@
         <v>112421</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -2900,13 +2894,13 @@
         <v>107560</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="M5" s="7">
         <v>213</v>
@@ -2915,13 +2909,13 @@
         <v>219980</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2983,13 @@
         <v>29187</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -3004,13 +2998,13 @@
         <v>28040</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3019,13 +3013,13 @@
         <v>57227</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3034,13 @@
         <v>553263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>524</v>
@@ -3055,13 +3049,13 @@
         <v>554343</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="M8" s="7">
         <v>1048</v>
@@ -3070,13 +3064,13 @@
         <v>1107606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,7 +3126,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3144,13 +3138,13 @@
         <v>39123</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -3159,13 +3153,13 @@
         <v>54026</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -3177,10 +3171,10 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,28 +3189,28 @@
         <v>978824</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>888</v>
       </c>
       <c r="I11" s="7">
-        <v>973750</v>
+        <v>973749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>1789</v>
@@ -3228,10 +3222,10 @@
         <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3252,7 @@
         <v>936</v>
       </c>
       <c r="I12" s="7">
-        <v>1027776</v>
+        <v>1027775</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3287,7 +3281,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3299,13 +3293,13 @@
         <v>27491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -3314,13 +3308,13 @@
         <v>37945</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -3329,13 +3323,13 @@
         <v>65435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3344,13 @@
         <v>729047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>669</v>
@@ -3365,13 +3359,13 @@
         <v>738338</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>1331</v>
@@ -3380,13 +3374,13 @@
         <v>1467386</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,7 +3436,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3454,13 +3448,13 @@
         <v>41933</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -3469,13 +3463,13 @@
         <v>65740</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>97</v>
@@ -3484,13 +3478,13 @@
         <v>107673</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3499,13 @@
         <v>902006</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>938</v>
@@ -3520,13 +3514,13 @@
         <v>983023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>1810</v>
@@ -3535,10 +3529,10 @@
         <v>1885029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>200</v>
@@ -3609,13 +3603,13 @@
         <v>140263</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>174</v>
@@ -3624,13 +3618,13 @@
         <v>190095</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>297</v>
@@ -3639,13 +3633,13 @@
         <v>330359</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3654,13 @@
         <v>3275561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>3114</v>
@@ -3675,13 +3669,13 @@
         <v>3357015</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>6191</v>
@@ -3690,13 +3684,13 @@
         <v>6632575</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3746,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3773,7 +3767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBBC05A-95DB-413E-87E0-FAD09D175524}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32426413-D580-4A4C-B873-511F883FF68B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3790,7 +3784,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3897,13 +3891,13 @@
         <v>5927</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3912,13 +3906,13 @@
         <v>7950</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3927,13 +3921,13 @@
         <v>13877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3942,13 @@
         <v>110619</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
         <v>107</v>
@@ -3963,13 +3957,13 @@
         <v>105410</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>214</v>
@@ -3978,13 +3972,13 @@
         <v>216029</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4046,13 @@
         <v>18947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4067,13 +4061,13 @@
         <v>23852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4082,13 +4076,13 @@
         <v>42798</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4097,13 @@
         <v>539307</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>528</v>
@@ -4118,13 +4112,13 @@
         <v>535627</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>1048</v>
@@ -4133,13 +4127,13 @@
         <v>1074935</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,7 +4189,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4207,13 +4201,13 @@
         <v>29091</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4222,13 +4216,13 @@
         <v>35540</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4237,13 +4231,13 @@
         <v>64631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4252,13 @@
         <v>993340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H11" s="7">
         <v>947</v>
@@ -4273,13 +4267,13 @@
         <v>1007373</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M11" s="7">
         <v>1872</v>
@@ -4288,13 +4282,13 @@
         <v>2000713</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4344,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4362,13 +4356,13 @@
         <v>22003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4377,13 +4371,13 @@
         <v>31402</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -4392,13 +4386,13 @@
         <v>53404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4407,13 @@
         <v>737549</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>709</v>
@@ -4428,13 +4422,13 @@
         <v>753609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>1386</v>
@@ -4443,13 +4437,13 @@
         <v>1491159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,7 +4499,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4517,13 +4511,13 @@
         <v>23802</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -4532,13 +4526,13 @@
         <v>44994</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -4547,13 +4541,13 @@
         <v>68796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4562,13 @@
         <v>913765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>922</v>
@@ -4583,13 +4577,13 @@
         <v>998785</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>1831</v>
@@ -4598,13 +4592,13 @@
         <v>1912550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4666,13 @@
         <v>99770</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>292</v>
       </c>
       <c r="H19" s="7">
         <v>125</v>
@@ -4687,13 +4681,13 @@
         <v>143737</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M19" s="7">
         <v>218</v>
@@ -4702,13 +4696,13 @@
         <v>243507</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,13 +4717,13 @@
         <v>3294580</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>166</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
         <v>3213</v>
@@ -4738,13 +4732,13 @@
         <v>3400805</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>297</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>6351</v>
@@ -4753,13 +4747,13 @@
         <v>6695385</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>301</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,7 +4809,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4836,7 +4830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196377DC-4611-487E-B02A-A1A8A4A4A394}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAEE962-99EA-4165-9C70-C386C3BB3BCD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5118,10 +5112,10 @@
         <v>321</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -5130,13 +5124,13 @@
         <v>72020</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>235</v>
@@ -5145,13 +5139,13 @@
         <v>121013</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5160,13 @@
         <v>500830</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>835</v>
@@ -5181,13 +5175,13 @@
         <v>520942</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>1373</v>
@@ -5196,13 +5190,13 @@
         <v>1021772</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,7 +5252,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5270,13 +5264,13 @@
         <v>51787</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -5285,13 +5279,13 @@
         <v>92814</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>250</v>
@@ -5300,13 +5294,13 @@
         <v>144600</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5315,13 @@
         <v>987461</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>1341</v>
@@ -5336,13 +5330,13 @@
         <v>966660</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>2230</v>
@@ -5351,7 +5345,7 @@
         <v>1954122</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>352</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>353</v>
@@ -5413,7 +5407,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5431,7 +5425,7 @@
         <v>356</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -5440,13 +5434,13 @@
         <v>41885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -5455,7 +5449,7 @@
         <v>78625</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>358</v>
@@ -5479,10 +5473,10 @@
         <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>980</v>
@@ -5491,13 +5485,13 @@
         <v>831861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>1612</v>
@@ -5506,7 +5500,7 @@
         <v>1522822</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>363</v>
@@ -5568,7 +5562,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5598,10 +5592,10 @@
         <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M16" s="7">
         <v>234</v>
@@ -5610,13 +5604,13 @@
         <v>153200</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5625,13 @@
         <v>898598</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>1411</v>
@@ -5646,13 +5640,13 @@
         <v>1059908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>2331</v>
@@ -5661,13 +5655,13 @@
         <v>1958506</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5729,13 @@
         <v>217109</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H19" s="7">
         <v>597</v>
@@ -5789,10 +5783,10 @@
         <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="H20" s="7">
         <v>4763</v>
@@ -5801,28 +5795,28 @@
         <v>3491525</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>7845</v>
       </c>
       <c r="N20" s="7">
-        <v>6658573</v>
+        <v>6658574</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,7 +5858,7 @@
         <v>8735</v>
       </c>
       <c r="N21" s="7">
-        <v>7187375</v>
+        <v>7187376</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5878,7 +5872,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F4E7A59-C3A3-46B4-9608-72C412249DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F2A7677-279F-4D25-9A81-B406B62C7F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{201F55BB-DEB1-47B3-B13E-62C684057219}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{612823BB-AA2B-42A0-80A2-C7F0C8ACC078}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="407">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,7 +80,7 @@
     <t>0,89%</t>
   </si>
   <si>
-    <t>7,77%</t>
+    <t>8,48%</t>
   </si>
   <si>
     <t>4,55%</t>
@@ -89,16 +89,16 @@
     <t>1,66%</t>
   </si>
   <si>
-    <t>9,22%</t>
+    <t>9,32%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,19%</t>
   </si>
   <si>
-    <t>92,23%</t>
+    <t>91,52%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -116,7 +116,7 @@
     <t>95,45%</t>
   </si>
   <si>
-    <t>90,78%</t>
+    <t>90,68%</t>
   </si>
   <si>
     <t>98,34%</t>
@@ -125,16 +125,16 @@
     <t>96,33%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,83%</t>
@@ -143,31 +143,31 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,98%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>98,02%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -176,46 +176,46 @@
     <t>97,37%</t>
   </si>
   <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>4,02%</t>
@@ -224,19 +224,19 @@
     <t>96,84%</t>
   </si>
   <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>96,91%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>96,87%</t>
@@ -245,58 +245,52 @@
     <t>95,98%</t>
   </si>
   <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>95,43%</t>
   </si>
   <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -305,829 +299,865 @@
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
+    <t>3,61%</t>
+  </si>
+  <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>95,94%</t>
   </si>
   <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
   </si>
   <si>
     <t>93,89%</t>
@@ -1641,7 +1671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C032B8F3-10E1-4AA8-82C7-01C23F8905A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584F8F80-DDA8-46B0-AF4B-85360FFA622F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2233,10 +2263,10 @@
         <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -2245,13 +2275,13 @@
         <v>31237</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -2260,13 +2290,13 @@
         <v>56122</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,10 +2314,10 @@
         <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>663</v>
@@ -2296,13 +2326,13 @@
         <v>652604</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1279</v>
@@ -2311,13 +2341,13 @@
         <v>1306228</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,7 +2403,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2385,13 +2415,13 @@
         <v>23252</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -2400,13 +2430,13 @@
         <v>40062</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -2415,13 +2445,13 @@
         <v>63315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2466,13 @@
         <v>918970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>957</v>
@@ -2451,13 +2481,13 @@
         <v>998550</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1928</v>
@@ -2466,13 +2496,13 @@
         <v>1917519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2570,13 @@
         <v>86595</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -2555,13 +2585,13 @@
         <v>121472</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -2573,10 +2603,10 @@
         <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,16 +2618,16 @@
         <v>3128</v>
       </c>
       <c r="D20" s="7">
-        <v>3188931</v>
+        <v>3188930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>3175</v>
@@ -2606,13 +2636,13 @@
         <v>3257726</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>6303</v>
@@ -2624,10 +2654,10 @@
         <v>66</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,7 +2669,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2683,7 +2713,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2704,7 +2734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90F6F4C-82D0-48BF-B705-FC3D94420E22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA507D71-50A3-41B4-B93F-8CB9A44B0900}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2721,7 +2751,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2828,13 +2858,13 @@
         <v>2529</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2843,13 +2873,13 @@
         <v>4345</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2858,13 +2888,13 @@
         <v>6875</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2909,13 @@
         <v>112421</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -2894,13 +2924,13 @@
         <v>107560</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>213</v>
@@ -2909,13 +2939,13 @@
         <v>219980</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +3013,13 @@
         <v>29187</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -2998,13 +3028,13 @@
         <v>28040</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3013,13 +3043,13 @@
         <v>57227</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3064,13 @@
         <v>553263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>524</v>
@@ -3049,13 +3079,13 @@
         <v>554343</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>1048</v>
@@ -3064,13 +3094,13 @@
         <v>1107606</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3168,13 @@
         <v>39123</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -3153,13 +3183,13 @@
         <v>54026</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -3171,10 +3201,10 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3219,13 @@
         <v>978824</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="H11" s="7">
         <v>888</v>
@@ -3204,13 +3234,13 @@
         <v>973749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>1789</v>
@@ -3222,10 +3252,10 @@
         <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3323,13 @@
         <v>27491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -3308,13 +3338,13 @@
         <v>37945</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -3323,13 +3353,13 @@
         <v>65435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3374,13 @@
         <v>729047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>669</v>
@@ -3359,13 +3389,13 @@
         <v>738338</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>1331</v>
@@ -3374,13 +3404,13 @@
         <v>1467386</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,7 +3466,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3448,13 +3478,13 @@
         <v>41933</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -3463,13 +3493,13 @@
         <v>65740</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>97</v>
@@ -3478,13 +3508,13 @@
         <v>107673</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3529,13 @@
         <v>902006</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>938</v>
@@ -3514,13 +3544,13 @@
         <v>983023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>1810</v>
@@ -3529,13 +3559,13 @@
         <v>1885029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3633,13 @@
         <v>140263</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>174</v>
@@ -3618,13 +3648,13 @@
         <v>190095</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>297</v>
@@ -3633,13 +3663,13 @@
         <v>330359</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3684,13 @@
         <v>3275561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>3114</v>
@@ -3669,13 +3699,13 @@
         <v>3357015</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>6191</v>
@@ -3684,13 +3714,13 @@
         <v>6632575</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3776,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3767,7 +3797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32426413-D580-4A4C-B873-511F883FF68B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EB1E04-BFDE-42FB-B99C-5157722B02DB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3784,7 +3814,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3891,13 +3921,13 @@
         <v>5927</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3906,13 +3936,13 @@
         <v>7950</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3921,13 +3951,13 @@
         <v>13877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3972,13 @@
         <v>110619</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H5" s="7">
         <v>107</v>
@@ -3957,13 +3987,13 @@
         <v>105410</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M5" s="7">
         <v>214</v>
@@ -3972,13 +4002,13 @@
         <v>216029</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4076,13 @@
         <v>18947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4061,13 +4091,13 @@
         <v>23852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4076,13 +4106,13 @@
         <v>42798</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4127,13 @@
         <v>539307</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>528</v>
@@ -4112,13 +4142,13 @@
         <v>535627</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>1048</v>
@@ -4127,13 +4157,13 @@
         <v>1074935</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4231,13 @@
         <v>29091</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4216,13 +4246,13 @@
         <v>35540</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4234,10 +4264,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4282,13 @@
         <v>993340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
         <v>947</v>
@@ -4267,13 +4297,13 @@
         <v>1007373</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>1872</v>
@@ -4285,10 +4315,10 @@
         <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4386,13 @@
         <v>22003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4371,13 +4401,13 @@
         <v>31402</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -4386,13 +4416,13 @@
         <v>53404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4437,13 @@
         <v>737549</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>709</v>
@@ -4422,13 +4452,13 @@
         <v>753609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>1386</v>
@@ -4437,13 +4467,13 @@
         <v>1491159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,7 +4529,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4511,13 +4541,13 @@
         <v>23802</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -4565,10 +4595,10 @@
         <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>922</v>
@@ -4577,10 +4607,10 @@
         <v>998785</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>66</v>
@@ -4592,13 +4622,13 @@
         <v>1912550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4696,13 @@
         <v>99770</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>125</v>
@@ -4681,13 +4711,13 @@
         <v>143737</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>218</v>
@@ -4696,13 +4726,13 @@
         <v>243507</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4747,13 @@
         <v>3294580</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
         <v>3213</v>
@@ -4732,13 +4762,13 @@
         <v>3400805</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="M20" s="7">
         <v>6351</v>
@@ -4747,13 +4777,13 @@
         <v>6695385</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,7 +4839,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4830,7 +4860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAEE962-99EA-4165-9C70-C386C3BB3BCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAAA362-8536-4B02-8B77-75F2E5D21B33}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4847,7 +4877,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4954,13 +4984,13 @@
         <v>12783</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -4969,13 +4999,13 @@
         <v>18580</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -4984,13 +5014,13 @@
         <v>31363</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +5035,13 @@
         <v>89199</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -5020,13 +5050,13 @@
         <v>112153</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>299</v>
@@ -5035,13 +5065,13 @@
         <v>201352</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5139,13 @@
         <v>48993</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -5124,13 +5154,13 @@
         <v>72020</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>235</v>
@@ -5139,13 +5169,13 @@
         <v>121013</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5190,13 @@
         <v>500830</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>835</v>
@@ -5175,13 +5205,13 @@
         <v>520942</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>1373</v>
@@ -5190,13 +5220,13 @@
         <v>1021772</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5294,13 @@
         <v>51787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -5279,13 +5309,13 @@
         <v>92814</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>250</v>
@@ -5294,13 +5324,13 @@
         <v>144600</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5345,13 @@
         <v>987461</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>1341</v>
@@ -5330,13 +5360,13 @@
         <v>966660</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>2230</v>
@@ -5345,13 +5375,13 @@
         <v>1954122</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5449,13 @@
         <v>36741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -5434,13 +5464,13 @@
         <v>41885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -5449,13 +5479,13 @@
         <v>78625</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5500,13 @@
         <v>690960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>980</v>
@@ -5485,10 +5515,10 @@
         <v>831861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>60</v>
@@ -5500,13 +5530,13 @@
         <v>1522822</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,7 +5592,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5574,13 +5604,13 @@
         <v>66805</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -5589,13 +5619,13 @@
         <v>86395</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>234</v>
@@ -5604,13 +5634,13 @@
         <v>153200</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5655,13 @@
         <v>898598</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>1411</v>
@@ -5640,13 +5670,13 @@
         <v>1059908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>2331</v>
@@ -5655,13 +5685,13 @@
         <v>1958506</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5759,13 @@
         <v>217109</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>597</v>
@@ -5744,13 +5774,13 @@
         <v>311693</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>890</v>
@@ -5759,13 +5789,13 @@
         <v>528802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5810,13 @@
         <v>3167049</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="H20" s="7">
         <v>4763</v>
@@ -5795,13 +5825,13 @@
         <v>3491525</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>7845</v>
@@ -5810,13 +5840,13 @@
         <v>6658574</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +5902,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F2A7677-279F-4D25-9A81-B406B62C7F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB57187B-4DD2-40FA-8596-9D3081C01A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{612823BB-AA2B-42A0-80A2-C7F0C8ACC078}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED383F2D-9E89-424C-B7A9-0AE9CE4E5F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="399">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,25 +71,25 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>3,67%</t>
@@ -98,7 +98,7 @@
     <t>1,79%</t>
   </si>
   <si>
-    <t>6,48%</t>
+    <t>6,76%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>97,19%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>96,33%</t>
   </si>
   <si>
-    <t>93,52%</t>
+    <t>93,24%</t>
   </si>
   <si>
     <t>98,21%</t>
@@ -143,826 +143,808 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,91%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,53%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>97,2%</t>
   </si>
   <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>96,93%</t>
   </si>
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
@@ -971,295 +953,289 @@
     <t>12,53%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>87,47%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>11,05%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>88,95%</t>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>87,85%</t>
   </si>
   <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>89,41%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>8,85%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>93,08%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>92,46%</t>
   </si>
   <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>91,15%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>93,58%</t>
   </si>
   <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584F8F80-DDA8-46B0-AF4B-85360FFA622F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE216E4A-7E97-49A5-BE19-44980A2DD928}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1986,7 +1962,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,13 +1977,13 @@
         <v>572852</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>553</v>
@@ -2016,13 +1992,13 @@
         <v>560460</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1125</v>
@@ -2031,13 +2007,13 @@
         <v>1133312</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,7 +2069,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2105,13 +2081,13 @@
         <v>30431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -2120,13 +2096,13 @@
         <v>29907</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -2135,13 +2111,13 @@
         <v>60337</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,13 +2132,13 @@
         <v>931369</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>880</v>
@@ -2171,13 +2147,13 @@
         <v>938486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1747</v>
@@ -2186,13 +2162,13 @@
         <v>1869856</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,7 +2224,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2263,10 +2239,10 @@
         <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -2275,13 +2251,13 @@
         <v>31237</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -2290,13 +2266,13 @@
         <v>56122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,10 +2290,10 @@
         <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>663</v>
@@ -2326,13 +2302,13 @@
         <v>652604</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1279</v>
@@ -2341,13 +2317,13 @@
         <v>1306228</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,7 +2379,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2415,13 +2391,13 @@
         <v>23252</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -2430,13 +2406,13 @@
         <v>40062</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -2445,13 +2421,13 @@
         <v>63315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2442,13 @@
         <v>918970</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>957</v>
@@ -2481,13 +2457,13 @@
         <v>998550</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1928</v>
@@ -2496,13 +2472,13 @@
         <v>1917519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,10 +2549,10 @@
         <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -2585,13 +2561,13 @@
         <v>121472</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -2600,13 +2576,13 @@
         <v>208067</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2597,13 @@
         <v>3188930</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7">
         <v>3175</v>
@@ -2636,28 +2612,28 @@
         <v>3257726</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>6303</v>
       </c>
       <c r="N20" s="7">
-        <v>6446656</v>
+        <v>6446655</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,7 +2675,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2713,7 +2689,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA507D71-50A3-41B4-B93F-8CB9A44B0900}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FEF061-4EF3-4C46-B994-316ACFBA0202}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2751,7 +2727,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2858,13 +2834,13 @@
         <v>2529</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2873,13 +2849,13 @@
         <v>4345</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2888,13 +2864,13 @@
         <v>6875</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2885,13 @@
         <v>112421</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -2924,13 +2900,13 @@
         <v>107560</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>213</v>
@@ -2939,13 +2915,13 @@
         <v>219980</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +2989,13 @@
         <v>29187</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -3028,13 +3004,13 @@
         <v>28040</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3043,13 +3019,13 @@
         <v>57227</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3040,13 @@
         <v>553263</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>524</v>
@@ -3079,13 +3055,13 @@
         <v>554343</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>1048</v>
@@ -3094,13 +3070,13 @@
         <v>1107606</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,7 +3132,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3168,13 +3144,13 @@
         <v>39123</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -3183,13 +3159,13 @@
         <v>54026</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -3225,22 +3201,22 @@
         <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="H11" s="7">
         <v>888</v>
       </c>
       <c r="I11" s="7">
-        <v>973749</v>
+        <v>973750</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
         <v>1789</v>
@@ -3252,10 +3228,10 @@
         <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,7 +3258,7 @@
         <v>936</v>
       </c>
       <c r="I12" s="7">
-        <v>1027775</v>
+        <v>1027776</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3311,7 +3287,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3323,13 +3299,13 @@
         <v>27491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -3338,13 +3314,13 @@
         <v>37945</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -3353,13 +3329,13 @@
         <v>65435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3350,13 @@
         <v>729047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>669</v>
@@ -3389,13 +3365,13 @@
         <v>738338</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>1331</v>
@@ -3404,13 +3380,13 @@
         <v>1467386</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,7 +3442,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3478,13 +3454,13 @@
         <v>41933</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -3493,13 +3469,13 @@
         <v>65740</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>97</v>
@@ -3508,13 +3484,13 @@
         <v>107673</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3505,13 @@
         <v>902006</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>938</v>
@@ -3544,13 +3520,13 @@
         <v>983023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>1810</v>
@@ -3559,13 +3535,13 @@
         <v>1885029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3609,13 @@
         <v>140263</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>174</v>
@@ -3648,13 +3624,13 @@
         <v>190095</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M19" s="7">
         <v>297</v>
@@ -3663,13 +3639,13 @@
         <v>330359</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3660,13 @@
         <v>3275561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
         <v>3114</v>
@@ -3699,13 +3675,13 @@
         <v>3357015</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>6191</v>
@@ -3714,13 +3690,13 @@
         <v>6632575</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,7 +3752,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3797,7 +3773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EB1E04-BFDE-42FB-B99C-5157722B02DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA46937C-5A6B-4FC0-8014-10973F998489}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3814,7 +3790,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3921,13 +3897,13 @@
         <v>5927</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3936,13 +3912,13 @@
         <v>7950</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3951,13 +3927,13 @@
         <v>13877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3948,13 @@
         <v>110619</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>107</v>
@@ -3987,13 +3963,13 @@
         <v>105410</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>214</v>
@@ -4002,13 +3978,13 @@
         <v>216029</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4052,13 @@
         <v>18947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4091,13 +4067,13 @@
         <v>23852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4106,13 +4082,13 @@
         <v>42798</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4103,13 @@
         <v>539307</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H8" s="7">
         <v>528</v>
@@ -4142,13 +4118,13 @@
         <v>535627</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>1048</v>
@@ -4157,10 +4133,10 @@
         <v>1074935</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>247</v>
@@ -4219,7 +4195,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4246,7 +4222,7 @@
         <v>35540</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>251</v>
@@ -4261,13 +4237,13 @@
         <v>64631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4258,13 @@
         <v>993340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H11" s="7">
         <v>947</v>
@@ -4297,13 +4273,13 @@
         <v>1007373</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
         <v>1872</v>
@@ -4312,13 +4288,13 @@
         <v>2000713</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,7 +4350,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4386,13 +4362,13 @@
         <v>22003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4401,13 +4377,13 @@
         <v>31402</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -4416,13 +4392,13 @@
         <v>53404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4413,13 @@
         <v>737549</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>709</v>
@@ -4470,7 +4446,7 @@
         <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>275</v>
@@ -4529,7 +4505,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4541,13 +4517,13 @@
         <v>23802</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -4556,13 +4532,13 @@
         <v>44994</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -4571,13 +4547,13 @@
         <v>68796</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,13 +4568,13 @@
         <v>913765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H17" s="7">
         <v>922</v>
@@ -4607,13 +4583,13 @@
         <v>998785</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>1831</v>
@@ -4622,13 +4598,13 @@
         <v>1912550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4672,13 @@
         <v>99770</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="H19" s="7">
         <v>125</v>
@@ -4711,13 +4687,13 @@
         <v>143737</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>296</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>218</v>
@@ -4726,13 +4702,13 @@
         <v>243507</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4723,13 @@
         <v>3294580</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>3213</v>
@@ -4762,13 +4738,13 @@
         <v>3400805</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="M20" s="7">
         <v>6351</v>
@@ -4777,13 +4753,13 @@
         <v>6695385</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>190</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4815,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4860,7 +4836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAAA362-8536-4B02-8B77-75F2E5D21B33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A1A741-7748-4188-B563-F6439E709156}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4877,7 +4853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4984,13 +4960,13 @@
         <v>12783</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -4999,13 +4975,13 @@
         <v>18580</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -5014,13 +4990,13 @@
         <v>31363</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5011,13 @@
         <v>89199</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -5050,13 +5026,13 @@
         <v>112153</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>299</v>
@@ -5065,13 +5041,13 @@
         <v>201352</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5115,13 @@
         <v>48993</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -5154,13 +5130,13 @@
         <v>72020</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>235</v>
@@ -5169,13 +5145,13 @@
         <v>121013</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5166,13 @@
         <v>500830</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>226</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>835</v>
@@ -5205,13 +5181,13 @@
         <v>520942</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>1373</v>
@@ -5220,13 +5196,13 @@
         <v>1021772</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,7 +5258,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5294,13 +5270,13 @@
         <v>51787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -5309,13 +5285,13 @@
         <v>92814</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>250</v>
@@ -5324,13 +5300,13 @@
         <v>144600</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,13 +5321,13 @@
         <v>987461</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>1341</v>
@@ -5360,13 +5336,13 @@
         <v>966660</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>2230</v>
@@ -5375,13 +5351,13 @@
         <v>1954122</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,7 +5413,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5449,13 +5425,13 @@
         <v>36741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -5464,13 +5440,13 @@
         <v>41885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -5479,13 +5455,13 @@
         <v>78625</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5476,13 @@
         <v>690960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>980</v>
@@ -5515,13 +5491,13 @@
         <v>831861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="M14" s="7">
         <v>1612</v>
@@ -5530,13 +5506,13 @@
         <v>1522822</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5568,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5604,13 +5580,13 @@
         <v>66805</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -5619,13 +5595,13 @@
         <v>86395</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>234</v>
@@ -5634,13 +5610,13 @@
         <v>153200</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5631,13 @@
         <v>898598</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>1411</v>
@@ -5670,13 +5646,13 @@
         <v>1059908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="M17" s="7">
         <v>2331</v>
@@ -5685,13 +5661,13 @@
         <v>1958506</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5735,13 @@
         <v>217109</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>597</v>
@@ -5774,13 +5750,13 @@
         <v>311693</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>890</v>
@@ -5789,13 +5765,13 @@
         <v>528802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5786,13 @@
         <v>3167049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>4763</v>
@@ -5825,28 +5801,28 @@
         <v>3491525</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>7845</v>
       </c>
       <c r="N20" s="7">
-        <v>6658574</v>
+        <v>6658573</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,7 +5864,7 @@
         <v>8735</v>
       </c>
       <c r="N21" s="7">
-        <v>7187376</v>
+        <v>7187375</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5902,7 +5878,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB57187B-4DD2-40FA-8596-9D3081C01A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D89842B3-24F6-4E60-BE7D-2C03CF866262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED383F2D-9E89-424C-B7A9-0AE9CE4E5F3F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8446C01A-8FBE-44D7-A245-E8D495C4A463}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="332">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,1174 +68,973 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
   </si>
 </sst>
 </file>
@@ -1647,8 +1446,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE216E4A-7E97-49A5-BE19-44980A2DD928}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF27EFF-EAE2-44BC-B1DB-CEF17AAAD6AA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1765,10 +1564,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>3243</v>
+        <v>8027</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1780,10 +1579,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>5130</v>
+        <v>20266</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1795,10 +1594,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>8373</v>
+        <v>28293</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1816,10 +1615,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>674</v>
       </c>
       <c r="D5" s="7">
-        <v>112115</v>
+        <v>684967</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1831,10 +1630,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>122</v>
+        <v>675</v>
       </c>
       <c r="I5" s="7">
-        <v>107625</v>
+        <v>668085</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1846,10 +1645,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>224</v>
+        <v>1349</v>
       </c>
       <c r="N5" s="7">
-        <v>219740</v>
+        <v>1353052</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1867,10 +1666,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1882,10 +1681,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1897,10 +1696,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1920,10 +1719,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>4784</v>
+        <v>30431</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1935,10 +1734,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>15136</v>
+        <v>29907</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1950,10 +1749,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>19920</v>
+        <v>60337</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1962,7 +1761,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,49 +1770,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>572</v>
+        <v>867</v>
       </c>
       <c r="D8" s="7">
-        <v>572852</v>
+        <v>931369</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>553</v>
+        <v>880</v>
       </c>
       <c r="I8" s="7">
-        <v>560460</v>
+        <v>938486</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1125</v>
+        <v>1747</v>
       </c>
       <c r="N8" s="7">
-        <v>1133312</v>
+        <v>1869856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,10 +1821,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2037,10 +1836,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2052,10 +1851,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2069,55 +1868,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>30431</v>
+        <v>24886</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>29907</v>
+        <v>31237</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
+        <v>58</v>
+      </c>
+      <c r="N10" s="7">
+        <v>56122</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="7">
-        <v>60337</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,49 +1925,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>867</v>
+        <v>616</v>
       </c>
       <c r="D11" s="7">
-        <v>931369</v>
+        <v>653623</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>880</v>
+        <v>663</v>
       </c>
       <c r="I11" s="7">
-        <v>938486</v>
+        <v>652604</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1747</v>
+        <v>1279</v>
       </c>
       <c r="N11" s="7">
-        <v>1869856</v>
+        <v>1306228</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,10 +1976,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2192,10 +1991,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2207,10 +2006,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2224,55 +2023,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>24886</v>
+        <v>23252</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>31237</v>
+        <v>40062</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="7">
+        <v>63</v>
+      </c>
+      <c r="N13" s="7">
+        <v>63315</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="7">
-        <v>58</v>
-      </c>
-      <c r="N13" s="7">
-        <v>56122</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,49 +2080,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>616</v>
+        <v>971</v>
       </c>
       <c r="D14" s="7">
-        <v>653623</v>
+        <v>918970</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>663</v>
+        <v>957</v>
       </c>
       <c r="I14" s="7">
-        <v>652604</v>
+        <v>998550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1928</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1917519</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1279</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1306228</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,10 +2131,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2347,10 +2146,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2362,10 +2161,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2379,31 +2178,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>23252</v>
+        <v>86595</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>85</v>
       </c>
       <c r="H16" s="7">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="I16" s="7">
-        <v>40062</v>
+        <v>121472</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>86</v>
@@ -2415,16 +2214,16 @@
         <v>88</v>
       </c>
       <c r="M16" s="7">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="N16" s="7">
-        <v>63315</v>
+        <v>208067</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>90</v>
@@ -2436,10 +2235,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>971</v>
+        <v>3128</v>
       </c>
       <c r="D17" s="7">
-        <v>918970</v>
+        <v>3188930</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>91</v>
@@ -2448,37 +2247,37 @@
         <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3175</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3257725</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="7">
-        <v>957</v>
-      </c>
-      <c r="I17" s="7">
-        <v>998550</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6303</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6446655</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="7">
-        <v>1928</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1917519</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,10 +2286,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2502,10 +2301,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2517,10 +2316,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2533,171 +2332,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>85</v>
-      </c>
-      <c r="D19" s="7">
-        <v>86595</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="7">
-        <v>122</v>
-      </c>
-      <c r="I19" s="7">
-        <v>121472</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M19" s="7">
-        <v>207</v>
-      </c>
-      <c r="N19" s="7">
-        <v>208067</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3128</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3188930</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3175</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3257726</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6303</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6446655</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>113</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2710,8 +2353,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FEF061-4EF3-4C46-B994-316ACFBA0202}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBC32A4-80BA-4C23-9177-5C68A2633785}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2727,7 +2370,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2828,49 +2471,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>2529</v>
+        <v>31717</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>4345</v>
+        <v>32385</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="N4" s="7">
-        <v>6875</v>
+        <v>64102</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,49 +2522,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>118</v>
+        <v>642</v>
       </c>
       <c r="D5" s="7">
-        <v>112421</v>
+        <v>665683</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7">
-        <v>95</v>
+        <v>619</v>
       </c>
       <c r="I5" s="7">
-        <v>107560</v>
+        <v>661903</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="M5" s="7">
-        <v>213</v>
+        <v>1261</v>
       </c>
       <c r="N5" s="7">
-        <v>219980</v>
+        <v>1327586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,10 +2573,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>669</v>
       </c>
       <c r="D6" s="7">
-        <v>114950</v>
+        <v>697400</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2945,10 +2588,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>648</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>694288</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2960,10 +2603,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1317</v>
       </c>
       <c r="N6" s="7">
-        <v>226855</v>
+        <v>1391688</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2983,49 +2626,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>29187</v>
+        <v>39123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>28040</v>
+        <v>54026</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="N7" s="7">
-        <v>57227</v>
+        <v>93149</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,49 +2677,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>524</v>
+        <v>901</v>
       </c>
       <c r="D8" s="7">
-        <v>553263</v>
+        <v>978824</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
-        <v>524</v>
+        <v>888</v>
       </c>
       <c r="I8" s="7">
-        <v>554343</v>
+        <v>973749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
-        <v>1048</v>
+        <v>1789</v>
       </c>
       <c r="N8" s="7">
-        <v>1107606</v>
+        <v>1952574</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,10 +2728,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>548</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>582450</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3100,10 +2743,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>549</v>
+        <v>936</v>
       </c>
       <c r="I9" s="7">
-        <v>582383</v>
+        <v>1027775</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3115,10 +2758,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1097</v>
+        <v>1872</v>
       </c>
       <c r="N9" s="7">
-        <v>1164833</v>
+        <v>2045723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3132,55 +2775,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7">
+        <v>27491</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="7">
         <v>35</v>
       </c>
-      <c r="D10" s="7">
-        <v>39123</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="7">
-        <v>48</v>
-      </c>
       <c r="I10" s="7">
-        <v>54026</v>
+        <v>37945</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>93149</v>
+        <v>65435</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,49 +2832,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>901</v>
+        <v>662</v>
       </c>
       <c r="D11" s="7">
-        <v>978824</v>
+        <v>729047</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
-        <v>888</v>
+        <v>669</v>
       </c>
       <c r="I11" s="7">
-        <v>973750</v>
+        <v>738338</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7">
-        <v>1789</v>
+        <v>1331</v>
       </c>
       <c r="N11" s="7">
-        <v>1952573</v>
+        <v>1467386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,10 +2883,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3255,10 +2898,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>936</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1027776</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3270,10 +2913,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1872</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2045722</v>
+        <v>1532821</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3287,55 +2930,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>27491</v>
+        <v>41933</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I13" s="7">
-        <v>37945</v>
+        <v>65740</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="N13" s="7">
-        <v>65435</v>
+        <v>107673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,49 +2987,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>662</v>
+        <v>872</v>
       </c>
       <c r="D14" s="7">
-        <v>729047</v>
+        <v>902006</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
-        <v>669</v>
+        <v>938</v>
       </c>
       <c r="I14" s="7">
-        <v>738338</v>
+        <v>983023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
-        <v>1331</v>
+        <v>1810</v>
       </c>
       <c r="N14" s="7">
-        <v>1467386</v>
+        <v>1885030</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>907</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>943939</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3410,10 +3053,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1048763</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3425,10 +3068,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1907</v>
       </c>
       <c r="N15" s="7">
-        <v>1532821</v>
+        <v>1992703</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3442,55 +3085,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7">
-        <v>41933</v>
+        <v>140263</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="I16" s="7">
-        <v>65740</v>
+        <v>190095</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="N16" s="7">
-        <v>107673</v>
+        <v>330359</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,49 +3142,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>872</v>
+        <v>3077</v>
       </c>
       <c r="D17" s="7">
-        <v>902006</v>
+        <v>3275562</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="H17" s="7">
-        <v>938</v>
+        <v>3114</v>
       </c>
       <c r="I17" s="7">
-        <v>983023</v>
+        <v>3357015</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
-        <v>1810</v>
+        <v>6191</v>
       </c>
       <c r="N17" s="7">
-        <v>1885029</v>
+        <v>6632575</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,10 +3193,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>907</v>
+        <v>3200</v>
       </c>
       <c r="D18" s="7">
-        <v>943939</v>
+        <v>3415825</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3565,10 +3208,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
+        <v>3288</v>
       </c>
       <c r="I18" s="7">
-        <v>1048763</v>
+        <v>3547110</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3580,10 +3223,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1907</v>
+        <v>6488</v>
       </c>
       <c r="N18" s="7">
-        <v>1992702</v>
+        <v>6962934</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3596,171 +3239,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>123</v>
-      </c>
-      <c r="D19" s="7">
-        <v>140263</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H19" s="7">
-        <v>174</v>
-      </c>
-      <c r="I19" s="7">
-        <v>190095</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M19" s="7">
-        <v>297</v>
-      </c>
-      <c r="N19" s="7">
-        <v>330359</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3077</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3275561</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A19" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3114</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3357015</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6191</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6632575</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3200</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3415824</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3288</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3547110</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6488</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6962934</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>113</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3773,8 +3260,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA46937C-5A6B-4FC0-8014-10973F998489}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182ABCFE-E357-490C-92B5-CC54E2D6C73D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3790,7 +3277,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3891,49 +3378,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>5927</v>
+        <v>24874</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>7950</v>
+        <v>31802</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="N4" s="7">
-        <v>13877</v>
+        <v>56676</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,49 +3429,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>107</v>
+        <v>627</v>
       </c>
       <c r="D5" s="7">
-        <v>110619</v>
+        <v>649926</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
-        <v>107</v>
+        <v>635</v>
       </c>
       <c r="I5" s="7">
-        <v>105410</v>
+        <v>641037</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="M5" s="7">
-        <v>214</v>
+        <v>1262</v>
       </c>
       <c r="N5" s="7">
-        <v>216029</v>
+        <v>1290963</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,10 +3480,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4008,10 +3495,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4023,10 +3510,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4046,49 +3533,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>18947</v>
+        <v>29091</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>23852</v>
+        <v>35540</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>42798</v>
+        <v>64631</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,49 +3584,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>520</v>
+        <v>925</v>
       </c>
       <c r="D8" s="7">
-        <v>539307</v>
+        <v>993340</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
-        <v>528</v>
+        <v>947</v>
       </c>
       <c r="I8" s="7">
-        <v>535627</v>
+        <v>1007373</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
-        <v>1048</v>
+        <v>1872</v>
       </c>
       <c r="N8" s="7">
-        <v>1074935</v>
+        <v>2000713</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,10 +3635,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4163,10 +3650,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4178,10 +3665,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4195,55 +3682,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>29091</v>
+        <v>22003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>35540</v>
+        <v>31402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="M10" s="7">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N10" s="7">
-        <v>64631</v>
+        <v>53404</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>217</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,49 +3739,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>925</v>
+        <v>677</v>
       </c>
       <c r="D11" s="7">
-        <v>993340</v>
+        <v>737549</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="H11" s="7">
-        <v>947</v>
+        <v>709</v>
       </c>
       <c r="I11" s="7">
-        <v>1007373</v>
+        <v>753609</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="M11" s="7">
-        <v>1872</v>
+        <v>1386</v>
       </c>
       <c r="N11" s="7">
-        <v>2000713</v>
+        <v>1491159</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,10 +3790,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4318,10 +3805,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4333,10 +3820,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4350,55 +3837,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>22003</v>
+        <v>23802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>31402</v>
+        <v>44994</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>53404</v>
+        <v>68796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,49 +3894,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>677</v>
+        <v>909</v>
       </c>
       <c r="D14" s="7">
-        <v>737549</v>
+        <v>913765</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
-        <v>709</v>
+        <v>922</v>
       </c>
       <c r="I14" s="7">
-        <v>753609</v>
+        <v>998785</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
-        <v>1386</v>
+        <v>1831</v>
       </c>
       <c r="N14" s="7">
-        <v>1491159</v>
+        <v>1912550</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,10 +3945,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4473,10 +3960,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4488,10 +3975,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4505,55 +3992,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7">
-        <v>23802</v>
+        <v>99770</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="H16" s="7">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="I16" s="7">
-        <v>44994</v>
+        <v>143737</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="N16" s="7">
-        <v>68796</v>
+        <v>243507</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,49 +4049,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>909</v>
+        <v>3138</v>
       </c>
       <c r="D17" s="7">
-        <v>913765</v>
+        <v>3294580</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
-        <v>922</v>
+        <v>3213</v>
       </c>
       <c r="I17" s="7">
-        <v>998785</v>
+        <v>3400805</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
-        <v>1831</v>
+        <v>6351</v>
       </c>
       <c r="N17" s="7">
-        <v>1912550</v>
+        <v>6695385</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,10 +4100,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4628,10 +4115,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4643,10 +4130,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4659,171 +4146,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>93</v>
-      </c>
-      <c r="D19" s="7">
-        <v>99770</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" s="7">
-        <v>125</v>
-      </c>
-      <c r="I19" s="7">
-        <v>143737</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M19" s="7">
-        <v>218</v>
-      </c>
-      <c r="N19" s="7">
-        <v>243507</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3138</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3294580</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3213</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3400805</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6351</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6695385</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>113</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4836,8 +4167,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A1A741-7748-4188-B563-F6439E709156}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A9E61F-1B65-4E02-A993-3E65656664C7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4853,7 +4184,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4954,49 +4285,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7">
-        <v>12783</v>
+        <v>62083</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="I4" s="7">
-        <v>18580</v>
+        <v>84501</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="N4" s="7">
-        <v>31363</v>
+        <v>146584</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,49 +4336,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>641</v>
       </c>
       <c r="D5" s="7">
-        <v>89199</v>
+        <v>573358</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="H5" s="7">
-        <v>196</v>
+        <v>1031</v>
       </c>
       <c r="I5" s="7">
-        <v>112153</v>
+        <v>591251</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="M5" s="7">
-        <v>299</v>
+        <v>1672</v>
       </c>
       <c r="N5" s="7">
-        <v>201352</v>
+        <v>1164610</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,10 +4387,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5071,10 +4402,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5086,10 +4417,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5109,49 +4440,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7">
-        <v>48993</v>
+        <v>48443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="H7" s="7">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="I7" s="7">
-        <v>72020</v>
+        <v>84810</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="M7" s="7">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="N7" s="7">
-        <v>121013</v>
+        <v>133253</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,49 +4491,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>538</v>
+        <v>889</v>
       </c>
       <c r="D8" s="7">
-        <v>500830</v>
+        <v>1144421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="H8" s="7">
-        <v>835</v>
+        <v>1341</v>
       </c>
       <c r="I8" s="7">
-        <v>520942</v>
+        <v>873296</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="M8" s="7">
-        <v>1373</v>
+        <v>2230</v>
       </c>
       <c r="N8" s="7">
-        <v>1021772</v>
+        <v>2017718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,10 +4542,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5226,10 +4557,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5241,10 +4572,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5258,55 +4589,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>51787</v>
+        <v>34644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="I10" s="7">
-        <v>92814</v>
+        <v>38310</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>144600</v>
+        <v>72954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>291</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,49 +4646,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>889</v>
+        <v>632</v>
       </c>
       <c r="D11" s="7">
-        <v>987461</v>
+        <v>669040</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="H11" s="7">
-        <v>1341</v>
+        <v>980</v>
       </c>
       <c r="I11" s="7">
-        <v>966660</v>
+        <v>894490</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="M11" s="7">
-        <v>2230</v>
+        <v>1612</v>
       </c>
       <c r="N11" s="7">
-        <v>1954122</v>
+        <v>1563530</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>354</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,10 +4697,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5381,10 +4712,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932800</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5396,10 +4727,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1636484</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5413,55 +4744,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7">
-        <v>36741</v>
+        <v>62956</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>356</v>
+        <v>116</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="H13" s="7">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="I13" s="7">
-        <v>41885</v>
+        <v>78890</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>303</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="M13" s="7">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="N13" s="7">
-        <v>78625</v>
+        <v>141845</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,49 +4801,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>632</v>
+        <v>920</v>
       </c>
       <c r="D14" s="7">
-        <v>690960</v>
+        <v>863875</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>309</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
-        <v>980</v>
+        <v>1411</v>
       </c>
       <c r="I14" s="7">
-        <v>831861</v>
+        <v>1012484</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="M14" s="7">
-        <v>1612</v>
+        <v>2331</v>
       </c>
       <c r="N14" s="7">
-        <v>1522822</v>
+        <v>1876360</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,10 +4852,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5536,10 +4867,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5551,10 +4882,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1601447</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5568,55 +4899,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>86</v>
+        <v>293</v>
       </c>
       <c r="D16" s="7">
-        <v>66805</v>
+        <v>208125</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>366</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7">
-        <v>148</v>
+        <v>597</v>
       </c>
       <c r="I16" s="7">
-        <v>86395</v>
+        <v>286511</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="M16" s="7">
-        <v>234</v>
+        <v>890</v>
       </c>
       <c r="N16" s="7">
-        <v>153200</v>
+        <v>494636</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,49 +4956,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>920</v>
+        <v>3082</v>
       </c>
       <c r="D17" s="7">
-        <v>898598</v>
+        <v>3250695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7">
-        <v>1411</v>
+        <v>4763</v>
       </c>
       <c r="I17" s="7">
-        <v>1059908</v>
+        <v>3371522</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="M17" s="7">
-        <v>2331</v>
+        <v>7845</v>
       </c>
       <c r="N17" s="7">
-        <v>1958506</v>
+        <v>6622217</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,10 +5007,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458820</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5691,10 +5022,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5360</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3658033</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5706,10 +5037,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8735</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7116853</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5722,171 +5053,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>293</v>
-      </c>
-      <c r="D19" s="7">
-        <v>217109</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H19" s="7">
-        <v>597</v>
-      </c>
-      <c r="I19" s="7">
-        <v>311693</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="M19" s="7">
-        <v>890</v>
-      </c>
-      <c r="N19" s="7">
-        <v>528802</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3082</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3167049</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4763</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3491525</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7845</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6658573</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5360</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803218</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8735</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7187375</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>113</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
